--- a/data/hotels_by_city/Houston/Houston_shard_572.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_572.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1846923-Reviews-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Sleep-Inn-Suites-Houston-I-45-North.h3851799.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,840 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r544122939-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1846923</t>
+  </si>
+  <si>
+    <t>544122939</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Best kept secret in north Houston</t>
+  </si>
+  <si>
+    <t>Have stayed here so many times, always will return.  The owners area great and the rooms are clean &amp; comfy.It is convenient for getting around Houston and I will arrange my travel plans around staying here.There are restaurants close by as well.Highly recommend.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r491291137-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491291137</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>From start to finish, everything was definitely on point and let me give a special S/O to hotel manager Keisha for making sure everything was just right from check in to "see ya" and I'll definitely be back to this Sleep Inn</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r489376574-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489376574</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t>From the moment we entered, we felt right at home--many thanks to Keesha(sp?)! She had the perfect blend of friendliness and professionalism, something that's fairly rare nowadays. She would be right at home in the best properties anywhere. Needless to say, our check-in was a breeze!
+My room was quite clean--carpet and surfaces. The bed linens were spotless and the mattress, while a bit stiff--"firm" isn't the right word--still afforded a good night's sleep. The room was simply but nicely decorated with an abundance of electrical outlets which is very much appreciated. And the room had a shower--yes, a real shower--something that's becoming obsolete in most properties. But for those of us that prefer them to baths, it's a definite plus.
+There were a few things that were sub-par, however. The first was the wifi--it was not a secured connection and the speed was less than desirable. The other was the breakfast. Yes, I know it's "free" (it really isn't as you're charged for it in the room rate) but it should at least be flavorful. Sausage swimming in grease, egg discs (such as those used in fast food breakfast sandwiches), dried biscuits and watery gravy just didn't fill the bill. One taste was enough to switch to a bagel and cream cheese.
+My overall rating for this property would be four stars, one star being deducted by the wifi and the breakfast. However, it was the exemplary service we...From the moment we entered, we felt right at home--many thanks to Keesha(sp?)! She had the perfect blend of friendliness and professionalism, something that's fairly rare nowadays. She would be right at home in the best properties anywhere. Needless to say, our check-in was a breeze!My room was quite clean--carpet and surfaces. The bed linens were spotless and the mattress, while a bit stiff--"firm" isn't the right word--still afforded a good night's sleep. The room was simply but nicely decorated with an abundance of electrical outlets which is very much appreciated. And the room had a shower--yes, a real shower--something that's becoming obsolete in most properties. But for those of us that prefer them to baths, it's a definite plus.There were a few things that were sub-par, however. The first was the wifi--it was not a secured connection and the speed was less than desirable. The other was the breakfast. Yes, I know it's "free" (it really isn't as you're charged for it in the room rate) but it should at least be flavorful. Sausage swimming in grease, egg discs (such as those used in fast food breakfast sandwiches), dried biscuits and watery gravy just didn't fill the bill. One taste was enough to switch to a bagel and cream cheese.My overall rating for this property would be four stars, one star being deducted by the wifi and the breakfast. However, it was the exemplary service we received from Keesha that added that extra star. Note to the owners: this young lady would be an excellent GM!This is a comfortable hotel at an excellent room rate; even with the negatives above, I'd be happy to return.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>From the moment we entered, we felt right at home--many thanks to Keesha(sp?)! She had the perfect blend of friendliness and professionalism, something that's fairly rare nowadays. She would be right at home in the best properties anywhere. Needless to say, our check-in was a breeze!
+My room was quite clean--carpet and surfaces. The bed linens were spotless and the mattress, while a bit stiff--"firm" isn't the right word--still afforded a good night's sleep. The room was simply but nicely decorated with an abundance of electrical outlets which is very much appreciated. And the room had a shower--yes, a real shower--something that's becoming obsolete in most properties. But for those of us that prefer them to baths, it's a definite plus.
+There were a few things that were sub-par, however. The first was the wifi--it was not a secured connection and the speed was less than desirable. The other was the breakfast. Yes, I know it's "free" (it really isn't as you're charged for it in the room rate) but it should at least be flavorful. Sausage swimming in grease, egg discs (such as those used in fast food breakfast sandwiches), dried biscuits and watery gravy just didn't fill the bill. One taste was enough to switch to a bagel and cream cheese.
+My overall rating for this property would be four stars, one star being deducted by the wifi and the breakfast. However, it was the exemplary service we...From the moment we entered, we felt right at home--many thanks to Keesha(sp?)! She had the perfect blend of friendliness and professionalism, something that's fairly rare nowadays. She would be right at home in the best properties anywhere. Needless to say, our check-in was a breeze!My room was quite clean--carpet and surfaces. The bed linens were spotless and the mattress, while a bit stiff--"firm" isn't the right word--still afforded a good night's sleep. The room was simply but nicely decorated with an abundance of electrical outlets which is very much appreciated. And the room had a shower--yes, a real shower--something that's becoming obsolete in most properties. But for those of us that prefer them to baths, it's a definite plus.There were a few things that were sub-par, however. The first was the wifi--it was not a secured connection and the speed was less than desirable. The other was the breakfast. Yes, I know it's "free" (it really isn't as you're charged for it in the room rate) but it should at least be flavorful. Sausage swimming in grease, egg discs (such as those used in fast food breakfast sandwiches), dried biscuits and watery gravy just didn't fill the bill. One taste was enough to switch to a bagel and cream cheese.My overall rating for this property would be four stars, one star being deducted by the wifi and the breakfast. However, it was the exemplary service we received from Keesha that added that extra star. Note to the owners: this young lady would be an excellent GM!This is a comfortable hotel at an excellent room rate; even with the negatives above, I'd be happy to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r466766999-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466766999</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Clean and modern</t>
+  </si>
+  <si>
+    <t>Visited for one night during a recent road trip with my family and really enjoyed the place.  It's a newer property and one of the nicer Sleep Inns I have visited.  The decor is modern and nice.  It's far enough from the freeway (a couple of blocks) that we did not hear the noise, but close enough to be convenient.  We stayed on the third floor and heard no noise at all, room to room or floor to floor.  Pool is outdoors, open from March to September, and is clean and nice.  Breakfast is the usual spread, but quite clean and in a spacious room.  Beds were clean and comfy too. We would definitely stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Visited for one night during a recent road trip with my family and really enjoyed the place.  It's a newer property and one of the nicer Sleep Inns I have visited.  The decor is modern and nice.  It's far enough from the freeway (a couple of blocks) that we did not hear the noise, but close enough to be convenient.  We stayed on the third floor and heard no noise at all, room to room or floor to floor.  Pool is outdoors, open from March to September, and is clean and nice.  Breakfast is the usual spread, but quite clean and in a spacious room.  Beds were clean and comfy too. We would definitely stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r432660524-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432660524</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Clean place!</t>
+  </si>
+  <si>
+    <t>I'll visit here again. Clean room! Helpful staff, who will honor internet deals if you are a walk-in. Breakfast is better than most continental places. Waffles were delicious! You won't be disappointed.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r428976646-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428976646</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Surprisingly fine</t>
+  </si>
+  <si>
+    <t>Stayed here because we missed our flight, but it was a delightful stay: quiet, comfortable king size bed, at a low price. Our stay included a free wonderful hot breakfast. The shuttle got to the airport in 10 minutes. Will be glad to stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r416531384-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416531384</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>My husband had to attend school at  Falck marine for a week.  We found this hotel to be very near to the property and easy to get to.  The hotel itself was extremely clean, breakfast offered a wide range of food, it has a small exercise room, and a pool.  The staff was wonderful and friendly; especially Roger at the front desk.  They answered all questions, offered suggestions and always had smiles on their faces.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r407202039-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407202039</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Perfect for out-of-towners!</t>
+  </si>
+  <si>
+    <t>We had mediocre expectations of Houston and hotels in general, as we were way north of the city proper.  From the photos on the web, to the actual visit, we were pleasantly surprised at the cleanliness, professionalism, and the courtesy conferred each and every time we were face to face with the staff.  The breakfast bar is top-notch for a small-sized hotel.  Better than continental.  The Texas-shaped waffles, are a different flavor every day!  The pool is quite large and the access to all of the necessary roads and junction is available from this  modern, Tex Mex diamond in the rough!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r391592894-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391592894</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Clean Motel with 6-star Bed!!!</t>
+  </si>
+  <si>
+    <t>Clean, well maintained, with a simple but nice reception lobby. The distinguishing feature was the bed; a thick mattress which was firm and very comfortable! What also stood out was the high service standard and warm hospitality of the staff. All deserved mention; though the front desk staff, Elray Slatee, and his brother, Roger (also the manager), stood out. They were polite and patient with our many questions, we being first time visitors to Houston. First time I was impressed with staying in a motel.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r376138603-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376138603</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Delightful Home away from home</t>
+  </si>
+  <si>
+    <t>The hotel appearance appears it has just opened but I learned it has been in operation for 6 years...a testimony of how the staff as kept both the outside and inside in excellent shape. The landscaping is very beautiful. The lobby and eating areas again are very clean, modern furniture and furnishings.My Room location preferences were arranged as I like without asking again at check in. The rooms were well furnished and very comfortable. The location of the hotel is very convenient to the North Houston areas like Conroe and the Woodlands.I felt very safe and secure as I could feeling like I was Home away from home.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r374536645-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374536645</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Stayed for Ironman race</t>
+  </si>
+  <si>
+    <t>The staff were very friendly and helpful. The rooms were clean, good size with very comfortable beds. The property is very well maintained. The breakfast was good with a selection of both hot and cold items. There are restaurants within a 5 minute walk of the property. We would definitely stay at this location on our next visit to Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r368126574-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368126574</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Fantastic staff, clean and comfortable</t>
+  </si>
+  <si>
+    <t>First, we have to say that Roger at the front desk made a lasting impression on us with his positive personality and hospitality.  Also, the facility was so fresh and clean we thought this had to be a brand new hotel, but learned it was actually a few years old.  We loved the walk-in shower and are working a similar one into our bathroom renovation in our own home after staying here.  We'll definitely look for Sleep In hotels in our travels.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r358696483-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358696483</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Great location for a stop over. Disappointing breakfast</t>
+  </si>
+  <si>
+    <t>Stopped over here after a flight from the UK. Ample parking, quiet location with minimal car noise from the nearby interstate. The little pool is nice and has well looked after furniture and surroundings. The pool is more a sit and dip size, rather than an actual swimming size. The hotel looks new and could not see any wear and tear. The one disappointing thing was the breakfast. The cook had not turned up so apart from a bagel and yoghurt there was nothing to really eat. Plates and cups were disposable. The cook did eventually show and produced some food, but was too late for those full on the bagel and yoghurt diet. Overall a great stop over hotel, just don't have high hopes for the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Stopped over here after a flight from the UK. Ample parking, quiet location with minimal car noise from the nearby interstate. The little pool is nice and has well looked after furniture and surroundings. The pool is more a sit and dip size, rather than an actual swimming size. The hotel looks new and could not see any wear and tear. The one disappointing thing was the breakfast. The cook had not turned up so apart from a bagel and yoghurt there was nothing to really eat. Plates and cups were disposable. The cook did eventually show and produced some food, but was too late for those full on the bagel and yoghurt diet. Overall a great stop over hotel, just don't have high hopes for the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r358183099-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358183099</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Best place in North Houston</t>
+  </si>
+  <si>
+    <t>I have reviewed this place several times, but I just can't say enough nice things.The staff here are great.  Always friendly &amp; helpful.  We travel a lot, and it is the little things that matter.  The location is great.  Easy access to 45 but yet far enough off the highway that it is a quiet location.  It is also located very close to some restaurants.They have a security guard at night to keep an eye on the parking area &amp; for when we arrive really late.  We have never had any issues here, but that makes me feel better knowing they are watching.This hotel is always super clean and the rooms are very comfy.They have an outdoor pool, but I have never used it..but for those who want to know.I really have only good things to say about this hotel.  Keep up the good work and thanks for making our trips to Houston a little more bearable!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have reviewed this place several times, but I just can't say enough nice things.The staff here are great.  Always friendly &amp; helpful.  We travel a lot, and it is the little things that matter.  The location is great.  Easy access to 45 but yet far enough off the highway that it is a quiet location.  It is also located very close to some restaurants.They have a security guard at night to keep an eye on the parking area &amp; for when we arrive really late.  We have never had any issues here, but that makes me feel better knowing they are watching.This hotel is always super clean and the rooms are very comfy.They have an outdoor pool, but I have never used it..but for those who want to know.I really have only good things to say about this hotel.  Keep up the good work and thanks for making our trips to Houston a little more bearable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r356033429-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356033429</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed at the Sleep inn for the first time here in Houston and it was great! Not only was the price amazing but so were the comfortable beds, updated rooms, clean bathrooms, and friendly and very helpful staff. They also have a continental breakfast in the morning. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r342925994-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342925994</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>A great find!</t>
+  </si>
+  <si>
+    <t>My husband and I were very pleased with our experience here.  Our King Suite was large and very clean and comfortable.  The breakfast was delicious - omelets, sausage, bacon, biscuits &amp; gravy, waffles, muffins - and more!  The employees were very helpful when we had questions and supplied me with a toothbrush when I realized I had forgotton to pack it!   Roger was sincerely interested in our satisfaction with our stay.  We will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r326186728-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326186728</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>So easy to fix details make the stay bad...</t>
+  </si>
+  <si>
+    <t>At first when I arrived the hotel seemed nice, until I got to my first room, the smell was awfull, so I ask for another room and they gave me one exactly on the side of the lobby, but all the lobby sounds could be heard so they switch me to another room... To be honest all the rooms smelled bad, and everytime I went out for something and then came back the smell was remembered... Anyway, after this, at almost 2am I dont know what the hell machine started to work near my room and the sound was so loud that the microwave in my room even started to tilt!!!! So this made even more loudness and I couldnt sleep until this machine was shut off, which was about an hour later, I even opened my door to check what was happening and I think was the ice machine in the corridor. Besides of this 2 simple to fix issues everything else was good. So if you stay here DO NOT CHOOSE ROOMS CLOSE TO ICE MACHINES OR THE FIRST FLOOR NEAR THE LOBBY!!! Another thing, the difference in price with other hotels in the area like the Springhill &amp; Suites about a mile ago make it a bad choice, because for a few bucks more you get a PERFECT HOTEL AND A MUCH MUCH MUCH BETTER ROOM THAN HERE, so think about it!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>At first when I arrived the hotel seemed nice, until I got to my first room, the smell was awfull, so I ask for another room and they gave me one exactly on the side of the lobby, but all the lobby sounds could be heard so they switch me to another room... To be honest all the rooms smelled bad, and everytime I went out for something and then came back the smell was remembered... Anyway, after this, at almost 2am I dont know what the hell machine started to work near my room and the sound was so loud that the microwave in my room even started to tilt!!!! So this made even more loudness and I couldnt sleep until this machine was shut off, which was about an hour later, I even opened my door to check what was happening and I think was the ice machine in the corridor. Besides of this 2 simple to fix issues everything else was good. So if you stay here DO NOT CHOOSE ROOMS CLOSE TO ICE MACHINES OR THE FIRST FLOOR NEAR THE LOBBY!!! Another thing, the difference in price with other hotels in the area like the Springhill &amp; Suites about a mile ago make it a bad choice, because for a few bucks more you get a PERFECT HOTEL AND A MUCH MUCH MUCH BETTER ROOM THAN HERE, so think about it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r325484466-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325484466</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Another great stay -</t>
+  </si>
+  <si>
+    <t>I have reviewed this hotel several times, and I am reviewing again.  This is the best kept secret in North Houston.  If you need a great hotel - the staff here are so nice anytime of day; it is a great location; restaurants close by; easy access to i-45 but far enough off to be quiet.I did finally check, as I keep odd working hours, but they have a very nice pool area with a hot tub.  Nice place to just hang out.I still haven't made it to breakfast - but one thing they do have....fresh coffee &amp; hot tea 24/7.The beds are comfy, the rooms are clean, and they always smell fresh.If you are in the area, you won't be disappointed staying here.  This is our Houston go-to.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have reviewed this hotel several times, and I am reviewing again.  This is the best kept secret in North Houston.  If you need a great hotel - the staff here are so nice anytime of day; it is a great location; restaurants close by; easy access to i-45 but far enough off to be quiet.I did finally check, as I keep odd working hours, but they have a very nice pool area with a hot tub.  Nice place to just hang out.I still haven't made it to breakfast - but one thing they do have....fresh coffee &amp; hot tea 24/7.The beds are comfy, the rooms are clean, and they always smell fresh.If you are in the area, you won't be disappointed staying here.  This is our Houston go-to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r293127481-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293127481</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Staff extremely helpful!!</t>
+  </si>
+  <si>
+    <t>Stayed at this location 4 years ago when it first opened (in Houston for Astros-Red Sox game) and loved the place so decided to stay here again. Made a reservation, pre-paid it a few weeks ago, and forgot about it. In a panic, made another reservation on 7/22 at a higher price since we were attending the Astros-Red Sox game 7/23. Called the hotel on 7/23 to discuss late check-in and the front-desk clerk pointed out the two reservations. Rather than charge me for the two reservations, they honored the initial reservation, which was at a lower rate, and canceled the 2nd reservation. I mentioned at that time that I would need extra pillows in my room, and likely would be arriving around midnight. Well, we checked in closer to 1 AM, and a different clerk greeted us with a smile. She managed to find 1 extra pillow for me since she was not aware of the earlier pillow request. When we got to our room, exhausted, there were 4 extra pillows, already placed there at the request of the earlier desk clerk. What a relief! The room is showing some signs of wear and tear (dings in the furniture, stains on the bedspread, musty smell in the room) but is still a great value and is very attractive for the price. The room was very clean aside from the stain on the bedspread. Will likely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this location 4 years ago when it first opened (in Houston for Astros-Red Sox game) and loved the place so decided to stay here again. Made a reservation, pre-paid it a few weeks ago, and forgot about it. In a panic, made another reservation on 7/22 at a higher price since we were attending the Astros-Red Sox game 7/23. Called the hotel on 7/23 to discuss late check-in and the front-desk clerk pointed out the two reservations. Rather than charge me for the two reservations, they honored the initial reservation, which was at a lower rate, and canceled the 2nd reservation. I mentioned at that time that I would need extra pillows in my room, and likely would be arriving around midnight. Well, we checked in closer to 1 AM, and a different clerk greeted us with a smile. She managed to find 1 extra pillow for me since she was not aware of the earlier pillow request. When we got to our room, exhausted, there were 4 extra pillows, already placed there at the request of the earlier desk clerk. What a relief! The room is showing some signs of wear and tear (dings in the furniture, stains on the bedspread, musty smell in the room) but is still a great value and is very attractive for the price. The room was very clean aside from the stain on the bedspread. Will likely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r288203866-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288203866</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff!!</t>
+  </si>
+  <si>
+    <t>My stay was here was very good. Nice location. The staff here was very nice especially Roger. He greets you with a smile each time. He is very helpful and friendly. He goes out of his way to make sure your stay here is pleasant. Great customer service.!! The breakfast was also good. Will return when I need a place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r287641349-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287641349</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed here the end of June. Everything was perfect. Roger was wonderful. Very friendly and helpful. The room was clean and the breakfast was great. It was a great location close to what we needed. If we go back to Houston we will definitely stay at this motel again. Nancy and Gene Tupelo, MS</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r280765909-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280765909</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel Experience</t>
+  </si>
+  <si>
+    <t>This was our first visit to Sleep Inn &amp; Suites in Houston and were not disappointed with our choice.   All of the staff was extremely friendly, especially Roger and Elroy at the Front Desk.  We were checked in to our room within minutes of arriving; checkout was equally quick.   The room (2 queen beds) was spacious, clean and decorated very nicely.   The cleaning staff did a fabulous job of cleaning the room while we were away.   The breakfast buffet had many choices of food to choose from, with hot and cold selections including eggs, sausage, bacon, biscuits &amp; gravy, waffles, and many other choices.   There was no need to go anywhere else for breakfast and that was appreciated!   The area was kept clean and well stocked.    The pool area was beautiful with a large pool and an area with 2 tables with umbrellas for shade and many lounge chairs for sun lovers.   We also utilized the charcoal grill outside of the pool area on two occasions for "home cooked" barbecues when we wanted to relax near the pool.  Everyone at the hotel was extremely friendly and hospitable and any request was taken care of immediately.   The owners take great care in the upkeep of the hotel, inside and out, and the staff seems genuinely happy to be of service.   We enjoyed our stay while visiting family and will definitely come back to this hotel for our next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first visit to Sleep Inn &amp; Suites in Houston and were not disappointed with our choice.   All of the staff was extremely friendly, especially Roger and Elroy at the Front Desk.  We were checked in to our room within minutes of arriving; checkout was equally quick.   The room (2 queen beds) was spacious, clean and decorated very nicely.   The cleaning staff did a fabulous job of cleaning the room while we were away.   The breakfast buffet had many choices of food to choose from, with hot and cold selections including eggs, sausage, bacon, biscuits &amp; gravy, waffles, and many other choices.   There was no need to go anywhere else for breakfast and that was appreciated!   The area was kept clean and well stocked.    The pool area was beautiful with a large pool and an area with 2 tables with umbrellas for shade and many lounge chairs for sun lovers.   We also utilized the charcoal grill outside of the pool area on two occasions for "home cooked" barbecues when we wanted to relax near the pool.  Everyone at the hotel was extremely friendly and hospitable and any request was taken care of immediately.   The owners take great care in the upkeep of the hotel, inside and out, and the staff seems genuinely happy to be of service.   We enjoyed our stay while visiting family and will definitely come back to this hotel for our next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r280167262-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280167262</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Very helpful and friendly staff</t>
+  </si>
+  <si>
+    <t>Both the front desk staff were extremely helpful and friendly. I didn't get the name of the young lady that checked us in, but she helped us with directions to a number of different places we needed to go to and the young man Roger had a very cheery disposition he was a pleasure to talk to, he did everything with a smile and a kind word.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r273383497-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273383497</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel and Front Desk Service</t>
+  </si>
+  <si>
+    <t>I'm always amazed when I stay at this Hotel. First off let me say that I'm a Platnum Member with IHG and normally stay at the Holiday Inn Express. Infact there is one across the street and I used to stay there. Why don't I stay there anymore? It was because one day they were booked so I took the Sleep Inn &amp; Suites across the street. To my amazement the Sleep Inn &amp; Suites was phenomenal and exceptional. They made me feel as though I stayed with them all the time. Roger at the front desk always has a smile on his face and makes you feel as though he came to work specifically for you. This place is awesome and even though they are less money per night they are extremely comparable to the Holiday Inn Express. When I make my stay in Houston, I go to the Sleep Inn &amp; Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I'm always amazed when I stay at this Hotel. First off let me say that I'm a Platnum Member with IHG and normally stay at the Holiday Inn Express. Infact there is one across the street and I used to stay there. Why don't I stay there anymore? It was because one day they were booked so I took the Sleep Inn &amp; Suites across the street. To my amazement the Sleep Inn &amp; Suites was phenomenal and exceptional. They made me feel as though I stayed with them all the time. Roger at the front desk always has a smile on his face and makes you feel as though he came to work specifically for you. This place is awesome and even though they are less money per night they are extremely comparable to the Holiday Inn Express. When I make my stay in Houston, I go to the Sleep Inn &amp; Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r267557401-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267557401</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>New Sleep Inn .....great accomidations and friendly staff</t>
+  </si>
+  <si>
+    <t>This Sleep Inn is close to the Woodlands and within walking distance to Cracker Barrel and other restaurants.     Friendly staff.... especially Roger at the front desk!  Roger always greets you with a huge smile and maintains a genuine can do attitude.  Example...  breakfast items had been .put up for the morning and Roger went into the  Kitchen and brought out some breakfast items just for me. Was impressed with that "over and above" attitude..</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r267313676-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267313676</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Layover for a night</t>
+  </si>
+  <si>
+    <t>The included breakfast was really good.  They had a great selection including a waffle iron, biscuits, sausage, eggs, yogurt, fruit, muffins, cold cereal.  Hotel was $32 USD cab ride from the Airport but I do believe they offer a shuttle.  The WiFi in the room was strong, and the room was spacious, clean, and updated.  The hotel is hard to see from the road as the driver blew right past it!  It's located right next to a Popeys and a well stocked gas station convenience store.  It is walking distance to nice restaurants but it was pouring outside, so we didn't venture past the Popeys.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r266619768-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266619768</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>excellent service</t>
+  </si>
+  <si>
+    <t>I would highly recommend this hotel. It is conveniently located, very clean, and has a great staff. The room was very spacious and CLEAN! I can;t emphasize that enough. The staff was very friendly and went out of their way to offer their services. Special thanks to Roger....Great job kid....keep up the good work!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r254672989-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254672989</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Great Place For Relaxation</t>
+  </si>
+  <si>
+    <t>Excellent accommodations. Staff/Manager very friendly and understanding. They even remembered my name. Rooms are very clean and roomy. Great location with easy in easy out access. Very quiet!!! I will definitely stay here again. I can only remember two names and I don't want to leave the third one out, but you guys know who you are. Thank you guys so much for making my 50th birthday a memorable one!!!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r250815618-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250815618</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Spent just one night on our way to a cruise in Galveston. Had 3 rooms all,very nice. Didn't have a car and the owner recommended a restaurant about 5 miles away and then gave all 6 of us a ride there in the hotel van.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Hetal S, Manager at Sleep Inn &amp; Suites I-45 North, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Spent just one night on our way to a cruise in Galveston. Had 3 rooms all,very nice. Didn't have a car and the owner recommended a restaurant about 5 miles away and then gave all 6 of us a ride there in the hotel van.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r246912097-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246912097</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK THIS HOTEL!!!!</t>
+  </si>
+  <si>
+    <t>We made the huge mistake and booked this hotel for our 2 night stay in Houston back in October.The booking had a free cancelation protection, however, after we canceled our room (which was well within the free cancellation window) the hotel staff coded us as a "NO SHOW" and instead of getting the promised full refund, our credit card was charged for the full amount of $224.23!The manager of the property, Hethal Shaah, is either never in her office or simply refuses to accept our call. Numerous requests for a call back have been ignored by this manager.I have filed a formal complaint with the Customer Relations Department at Choice Inn Headquarters and am anxiously awaiting a resolution in addition to having filed a dispute with our credit card company!Save yourself a huge headache and unnecessary expenses and book a different property.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We made the huge mistake and booked this hotel for our 2 night stay in Houston back in October.The booking had a free cancelation protection, however, after we canceled our room (which was well within the free cancellation window) the hotel staff coded us as a "NO SHOW" and instead of getting the promised full refund, our credit card was charged for the full amount of $224.23!The manager of the property, Hethal Shaah, is either never in her office or simply refuses to accept our call. Numerous requests for a call back have been ignored by this manager.I have filed a formal complaint with the Customer Relations Department at Choice Inn Headquarters and am anxiously awaiting a resolution in addition to having filed a dispute with our credit card company!Save yourself a huge headache and unnecessary expenses and book a different property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r234745619-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234745619</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Excellent staff and customer service</t>
+  </si>
+  <si>
+    <t>The service was excellent n every1 here was very nice it can't goes wrong if you stayed in this sleep inn n suite.the place was very clean is it the best place to stay.the help roger is the best helper at the front desk thanks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r210978069-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210978069</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Bad service</t>
+  </si>
+  <si>
+    <t>We decided for housekeeping to not clean room for the first day since we just checked in the day before. The next day we were going to be in room until 1 pm so i asked if our room could be cleaned then front desk said it was fine. I come back at 3 pm room is not clean i call front desk and she says housekeeping leaves at 1 they will clean room tomorrow.  So now im left with a dirty room plus she wasn't nice enough to ask if i needed towels or anything bad bad service! Im really mad....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r198089138-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198089138</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>New hotel, very clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is new modern and very clean . It's about 15 minutes from IAH airport on I-45. Comfortable bed and pillows with lots of space to put your stuff. The only thing I don't like is the shower. It's an open door without any kind of curtain where water gets all over the floor. There is a  continental breakfast of cereal, fruit, pastries, make your own waffles, eggs and sausage. </t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r184073152-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184073152</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
+    <t>Beautiful Property</t>
+  </si>
+  <si>
+    <t>The moment you walk in you are greeted by a smile and a friendly front desk clerk. Terri was the lady that checked us in and she knew great places to refer us to in the area. Very courteous and helpful always asking if everything was ok in the rm and if we needed anything to not hesitate went above and beyond. The rooms were immaculant great job to the housekeeping staff. I would most definately be staying at this hotel again next time we are in town we will have to come see Terri and that wonderful smile thanks for all you did to make our stay great.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r183409619-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183409619</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Hotel is handy to I-45, quiet and clean.Room was comfortable and staff was friendly. Needs more parking. If breakfast was better, with more choices and not so cardboard bland, this would be an excellent property.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r182982140-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182982140</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Thank you Sleep Inn!!!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel for 4 days, and each day we were treated as if we had just arrived.  The hotel staff was always kind and we were greeted with friendly smiles and conversation each time we traveled through the lobby.  The first thing that we noticed was how clean the hotel was.  It looks brand new. The rooms are very spacious as well.  thank you Sleep Inn for making our trip so comfortable.  If traveling through the Houston area i highly recomend!!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r160071099-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160071099</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Great hotel in a quiet area...</t>
+  </si>
+  <si>
+    <t>Staff is great here, area is quiet and just off 45 which is very convenient. As others have mentioned it is a newer hotel. Its clean but not gleaming clean, there were scuff marks on the shower entrance from shoes which looked like it should have easily been cleaned. The showers themselves are a little odd, there is no door, you walk around an entrance into the shower. This is fine except the water pools in the entrance to the shower &amp; becomes cold &amp; you have to walk through it to get out which isn't pleasant. Over all a decent place to stay for a night or two.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r158162996-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158162996</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>Nice quiet clean room and good value.</t>
+  </si>
+  <si>
+    <t>Good motel located just north of downtown Houston and just west of Bush Airport.  Clean, quiet, new, friendly staff, good value, easy access to Highway 45.  Motel clerk was very courteous and helpful just before I left early in the morning.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r157230872-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157230872</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, smoke-free, 20 min. from airport</t>
+  </si>
+  <si>
+    <t>This is one of the new Sleep Inns, and they've done a very good job with them. We needed something near IAH for an early flight, and this was about a 20-minute drive at 7 AM on a Tuesday. There are closer hotels, but you will pay a lot more for a decent one! We had a large, spotlessly clean room with a very high ceiling (11 feet, I think) and very comfortable king-size bed. It's 100% smoke-free, so there's no need to worry about getting a formerly smoky room. The free breakfast was adequate (bake-your-own waffles, pre-made egg and biscuit sandwiches), though nothing like that of the other Sleep Inn I reviewed back in October! Quite satisified with our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of the new Sleep Inns, and they've done a very good job with them. We needed something near IAH for an early flight, and this was about a 20-minute drive at 7 AM on a Tuesday. There are closer hotels, but you will pay a lot more for a decent one! We had a large, spotlessly clean room with a very high ceiling (11 feet, I think) and very comfortable king-size bed. It's 100% smoke-free, so there's no need to worry about getting a formerly smoky room. The free breakfast was adequate (bake-your-own waffles, pre-made egg and biscuit sandwiches), though nothing like that of the other Sleep Inn I reviewed back in October! Quite satisified with our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r148478372-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148478372</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>Very good indeed</t>
+  </si>
+  <si>
+    <t>I loved this hotel. Rooms are very big and perfectly furnished, breakfast was perfect (same things everyday, but we only stayed for 3 days, so it was OK), personnel was kind and helpful.The location on the I-45 might be a bit of  problem if one does not have a car.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r147808317-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147808317</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel!</t>
+  </si>
+  <si>
+    <t>I'm a Choice Platinum Member and spend quite a few nights in hotels every year. This Sleep Inn is probably one of the nicest in the entire Choice Group. New, spacious, clean, great location, very friendly staff. I'll make this my home whenever I'm in Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r145610860-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145610860</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>Very nice Sleep Inn!</t>
+  </si>
+  <si>
+    <t>I stay in many Choice Hotels during the year.  This is one of the nicest and the best Sleep Inn I've been Inn.  The larger shower is nice.  Spacious suite.  Friendly and helpful staff.  Clean and new.  A nice night.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r142106106-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142106106</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>Best Value</t>
+  </si>
+  <si>
+    <t>Coming in after a 10 hrs flight we needed a comfortable place to stay for the night and recharge. An hotel that is clean, quiet, and not too far from the airport. This Sleep Inn has all of it at a reasonable price. The posive ratings from other customers are all confirmed.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r130222413-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130222413</t>
+  </si>
+  <si>
+    <t>05/19/2012</t>
+  </si>
+  <si>
+    <t>Wonderful service, very clean &amp; convenient to The Woodlands!!</t>
+  </si>
+  <si>
+    <t>Upon arrival, we were pleased to see that the hotel was newly built in a seemingly safe location surrounded by eateries (Cracker Barrel, Popeye's, What-A-Burger, Subway, Joe's Crab Shack, and Saltgrass), a couple gas stations, Sam's Warehouse, and a Discount Tire.  The concierge was very nice and polite, gave us great directions to the Cynthia Woods Mitchell Pavillion in the Woodlands (Less than 10min drive), and cheerfully informed us that he would be there to help until 11:00pm.  My husband and I have stayed at many hotels &amp; prefer to speak to an actual person when checking in and not a machine.The room was very modern in decor and immaculately clean.  The bed was oh so comfortable, I had to check the mattress label. Nice, strong water pressure in the shower &amp; we never ran out of hot water.We didn't get into the pool, although it looked very inviting.  We also had too much fun at the Dave Matthews Concert to make the breakfast...but we found a Waffle House right down the street.All and all a great stay, would definitely stay here again!  We are quite picky when it comes to hotel rooms, I have my routine room checks that is done before anyone is allowed to put any of their bags down...just a little OCD ;-)MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arrival, we were pleased to see that the hotel was newly built in a seemingly safe location surrounded by eateries (Cracker Barrel, Popeye's, What-A-Burger, Subway, Joe's Crab Shack, and Saltgrass), a couple gas stations, Sam's Warehouse, and a Discount Tire.  The concierge was very nice and polite, gave us great directions to the Cynthia Woods Mitchell Pavillion in the Woodlands (Less than 10min drive), and cheerfully informed us that he would be there to help until 11:00pm.  My husband and I have stayed at many hotels &amp; prefer to speak to an actual person when checking in and not a machine.The room was very modern in decor and immaculately clean.  The bed was oh so comfortable, I had to check the mattress label. Nice, strong water pressure in the shower &amp; we never ran out of hot water.We didn't get into the pool, although it looked very inviting.  We also had too much fun at the Dave Matthews Concert to make the breakfast...but we found a Waffle House right down the street.All and all a great stay, would definitely stay here again!  We are quite picky when it comes to hotel rooms, I have my routine room checks that is done before anyone is allowed to put any of their bags down...just a little OCD ;-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r125730481-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125730481</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>Quick trip to Houston</t>
+  </si>
+  <si>
+    <t>We are in Houston at least once a month.  This was our first time to stay at this hotel.  It was perfect.  Just north of the Beltway, which was good for us, easy access.  The hotel met all of our criteria, very clean, great service, the bed &amp; pillows very comfortable, and 24 hour fresh hot coffee.  They had free breakfast and it looked very good when I went for coffee, but I didn't eat on this trip.  It was also close to fast food &amp; other nicer restaurants.I was very impressed.  We normally stay at another hotel north of here, but this hotel was about $50 less per night and was probably better than the other place we normally stay..  This is now our "north" end hotel for trips to the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We are in Houston at least once a month.  This was our first time to stay at this hotel.  It was perfect.  Just north of the Beltway, which was good for us, easy access.  The hotel met all of our criteria, very clean, great service, the bed &amp; pillows very comfortable, and 24 hour fresh hot coffee.  They had free breakfast and it looked very good when I went for coffee, but I didn't eat on this trip.  It was also close to fast food &amp; other nicer restaurants.I was very impressed.  We normally stay at another hotel north of here, but this hotel was about $50 less per night and was probably better than the other place we normally stay..  This is now our "north" end hotel for trips to the Houston area.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1375,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1407,2878 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>200</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>223</v>
+      </c>
+      <c r="X30" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>248</v>
+      </c>
+      <c r="O34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" t="s">
+        <v>151</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O36" t="s">
+        <v>151</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>151</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>151</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>277</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>289</v>
+      </c>
+      <c r="O41" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>291</v>
+      </c>
+      <c r="J42" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" t="s">
+        <v>293</v>
+      </c>
+      <c r="L42" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>289</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>296</v>
+      </c>
+      <c r="J43" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" t="s">
+        <v>298</v>
+      </c>
+      <c r="L43" t="s">
+        <v>299</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>300</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>302</v>
+      </c>
+      <c r="J44" t="s">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" t="s">
+        <v>305</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>308</v>
+      </c>
+      <c r="J45" t="s">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s">
+        <v>311</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>318</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_572.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_572.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="500">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,67 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r587950766-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1846923</t>
+  </si>
+  <si>
+    <t>587950766</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay</t>
+  </si>
+  <si>
+    <t>The girl working the front desk during the day was super nice. Rooms were clean. Could hear the street noise from our room but it was tolerable. Nice breakfast area and a decent selection. I would stay again.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r554962973-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554962973</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>Good value.</t>
+  </si>
+  <si>
+    <t>We only stayed one night because we were moving on to San Antonio but it was a pleasant stay.  Nice hotel with only one real complaint.  Get bigger pillows.  They are oddly small and not easy to get used to.  Breakfast was good.  Price and location was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Sleep I, Manager at Sleep Inn &amp; Suites I-45 North, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>We only stayed one night because we were moving on to San Antonio but it was a pleasant stay.  Nice hotel with only one real complaint.  Get bigger pillows.  They are oddly small and not easy to get used to.  Breakfast was good.  Price and location was good.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r544122939-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1846923</t>
   </si>
   <si>
     <t>544122939</t>
@@ -225,6 +276,36 @@
 My overall rating for this property would be four stars, one star being deducted by the wifi and the breakfast. However, it was the exemplary service we...From the moment we entered, we felt right at home--many thanks to Keesha(sp?)! She had the perfect blend of friendliness and professionalism, something that's fairly rare nowadays. She would be right at home in the best properties anywhere. Needless to say, our check-in was a breeze!My room was quite clean--carpet and surfaces. The bed linens were spotless and the mattress, while a bit stiff--"firm" isn't the right word--still afforded a good night's sleep. The room was simply but nicely decorated with an abundance of electrical outlets which is very much appreciated. And the room had a shower--yes, a real shower--something that's becoming obsolete in most properties. But for those of us that prefer them to baths, it's a definite plus.There were a few things that were sub-par, however. The first was the wifi--it was not a secured connection and the speed was less than desirable. The other was the breakfast. Yes, I know it's "free" (it really isn't as you're charged for it in the room rate) but it should at least be flavorful. Sausage swimming in grease, egg discs (such as those used in fast food breakfast sandwiches), dried biscuits and watery gravy just didn't fill the bill. One taste was enough to switch to a bagel and cream cheese.My overall rating for this property would be four stars, one star being deducted by the wifi and the breakfast. However, it was the exemplary service we received from Keesha that added that extra star. Note to the owners: this young lady would be an excellent GM!This is a comfortable hotel at an excellent room rate; even with the negatives above, I'd be happy to return.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r472411919-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472411919</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>This is VERY good!</t>
+  </si>
+  <si>
+    <t>The staaf are very nice and helpful. Very nice and clean rooms. I got a super comfortable king bed.The breakfast is a bit simple but in contained what a needed. Eggs, mini omelettes and fresh fruit and good coffee.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r468079081-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468079081</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Very very clean!!!</t>
+  </si>
+  <si>
+    <t>We travel to Houston on a regular basis from San Antonio and we have now made this our permanent hotel to stay in!!! It is very clean and smells clean when you walk into the lobby and the room!! The price is very affordable and is definitely worth the price!! The rooms are updated and beds are very clean and comfortable. I would recommend this hotel to anyone who is visiting the Houston area!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r466766999-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -243,9 +324,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Visited for one night during a recent road trip with my family and really enjoyed the place.  It's a newer property and one of the nicer Sleep Inns I have visited.  The decor is modern and nice.  It's far enough from the freeway (a couple of blocks) that we did not hear the noise, but close enough to be convenient.  We stayed on the third floor and heard no noise at all, room to room or floor to floor.  Pool is outdoors, open from March to September, and is clean and nice.  Breakfast is the usual spread, but quite clean and in a spacious room.  Beds were clean and comfy too. We would definitely stay here again if in the area.More</t>
   </si>
   <si>
@@ -267,9 +345,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r428976646-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -285,6 +360,42 @@
     <t>Stayed here because we missed our flight, but it was a delightful stay: quiet, comfortable king size bed, at a low price. Our stay included a free wonderful hot breakfast. The shuttle got to the airport in 10 minutes. Will be glad to stay there again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r425737419-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425737419</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Back in June I had a 7 hour layover in Houston on the way to the Bahamas with my sister and we just wanted a place to crash for a few hours. Roger the hotel manager helped us out IMMENSELY, by getting us a room for a better rate so we could sleep for a couple of hours. Even with a wake up call to make sure we didn't miss our flight. Great service and great hotel!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r423774669-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423774669</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I had to travel to Houston for my job, and ended up at this hotel.  It's a very nice, clean facility.  When my husband and I checked in the guy, Roger at the front desk was wonderful!  We had experience a very bad experience with our flight but he was more than helpful to us and turned our day around.  I will definitely stay at this hotel on my next Houston Trip.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r416531384-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -333,7 +444,43 @@
     <t>Clean, well maintained, with a simple but nice reception lobby. The distinguishing feature was the bed; a thick mattress which was firm and very comfortable! What also stood out was the high service standard and warm hospitality of the staff. All deserved mention; though the front desk staff, Elray Slatee, and his brother, Roger (also the manager), stood out. They were polite and patient with our many questions, we being first time visitors to Houston. First time I was impressed with staying in a motel.</t>
   </si>
   <si>
-    <t>June 2016</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r390316621-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390316621</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Business travelers don't get points!</t>
+  </si>
+  <si>
+    <t>My introduction to this hotel at check in was being told that my Choice Hotel Rewards card was not necessary since the room was paid for by my employer and thus no points would be given. I pointed out that all of my travel was for business and that this was something I had never heard elsewhere. She had to call manager and after much discussion they agreed to allot points. Now, since my employer wasn't allotted the points, where would those points have gone? I don't want to call it  a scam, but if every business traveler was treated the same, and most didn't argue, that would be a whole lot of points in a year wouldn't it?  Otherwise, rooms were clean and decently appointed, pool was small but clean and well maintained, the free breakfast was your basic hotel fare, some bagels and muffins, those see through bacon strips and folded egg pouches that you always wonder if they come from a freezer bag etc... On the low end of the scale in my opinion. I would have given the hotel a 3, maybe a 4 for value as it wasn't very expensive, but manager trying to hold back points really turned me off on placeMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>My introduction to this hotel at check in was being told that my Choice Hotel Rewards card was not necessary since the room was paid for by my employer and thus no points would be given. I pointed out that all of my travel was for business and that this was something I had never heard elsewhere. She had to call manager and after much discussion they agreed to allot points. Now, since my employer wasn't allotted the points, where would those points have gone? I don't want to call it  a scam, but if every business traveler was treated the same, and most didn't argue, that would be a whole lot of points in a year wouldn't it?  Otherwise, rooms were clean and decently appointed, pool was small but clean and well maintained, the free breakfast was your basic hotel fare, some bagels and muffins, those see through bacon strips and folded egg pouches that you always wonder if they come from a freezer bag etc... On the low end of the scale in my opinion. I would have given the hotel a 3, maybe a 4 for value as it wasn't very expensive, but manager trying to hold back points really turned me off on placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r387663867-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387663867</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Not easy access. Enter from the Gas Station driveway!!</t>
+  </si>
+  <si>
+    <t>We couldn't find this hotel and passed by several time as IHidden behind the fence and need to enter from a gas station. The Indian Manager or owner manages with his family and was not friendly. We show very few cars and guests at this hotel as it is very far from the Bush Aiport. Truly its on back road and away.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r376138603-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
@@ -351,9 +498,6 @@
     <t>The hotel appearance appears it has just opened but I learned it has been in operation for 6 years...a testimony of how the staff as kept both the outside and inside in excellent shape. The landscaping is very beautiful. The lobby and eating areas again are very clean, modern furniture and furnishings.My Room location preferences were arranged as I like without asking again at check in. The rooms were well furnished and very comfortable. The location of the hotel is very convenient to the North Houston areas like Conroe and the Woodlands.I felt very safe and secure as I could feeling like I was Home away from home.</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r374536645-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -387,6 +531,45 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r361028662-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361028662</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Friendly, Attentive Staff</t>
+  </si>
+  <si>
+    <t>I chose this location as the closest "Choice Hotel" to my son's trade school.  As it turned out, the proximity was only one of many good reasons to stay at the Sleep Inn at I-45/Airtex.  The facility was immaculate and well-appointed.  In addition to this amenity, I found the staff members, ranging from upper management to housekeeping and maintenance, plus all others in-between, to be genuinely caring, kind, and helpful.  I would like to put in a particular "good word" for Roger, the morning desk clerk.  I will paraphrase both his spoken words and his actions in this manner:  "When my wife and I ourselves travel, it makes me feel more 'at home' in a hotel when the staff is friendly and attentive, rather than lukewarm.  I like to offer the same to my guests here."  Nicely spoken, Roger!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I chose this location as the closest "Choice Hotel" to my son's trade school.  As it turned out, the proximity was only one of many good reasons to stay at the Sleep Inn at I-45/Airtex.  The facility was immaculate and well-appointed.  In addition to this amenity, I found the staff members, ranging from upper management to housekeeping and maintenance, plus all others in-between, to be genuinely caring, kind, and helpful.  I would like to put in a particular "good word" for Roger, the morning desk clerk.  I will paraphrase both his spoken words and his actions in this manner:  "When my wife and I ourselves travel, it makes me feel more 'at home' in a hotel when the staff is friendly and attentive, rather than lukewarm.  I like to offer the same to my guests here."  Nicely spoken, Roger!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r360347392-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360347392</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Not as good this time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was our second time staying at this hotel when visiting Houston and needing a hotel close to the airport. This hotel is very clean and updated with reasonable prices. What I didn't like this time is that the pillows are very small and uncomfortable. They are the size of a decorative throw pillow with no support. I had a very rough night of sleep. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r358696483-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -402,9 +585,6 @@
     <t>Stopped over here after a flight from the UK. Ample parking, quiet location with minimal car noise from the nearby interstate. The little pool is nice and has well looked after furniture and surroundings. The pool is more a sit and dip size, rather than an actual swimming size. The hotel looks new and could not see any wear and tear. The one disappointing thing was the breakfast. The cook had not turned up so apart from a bagel and yoghurt there was nothing to really eat. Plates and cups were disposable. The cook did eventually show and produced some food, but was too late for those full on the bagel and yoghurt diet. Overall a great stop over hotel, just don't have high hopes for the breakfast.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Stopped over here after a flight from the UK. Ample parking, quiet location with minimal car noise from the nearby interstate. The little pool is nice and has well looked after furniture and surroundings. The pool is more a sit and dip size, rather than an actual swimming size. The hotel looks new and could not see any wear and tear. The one disappointing thing was the breakfast. The cook had not turned up so apart from a bagel and yoghurt there was nothing to really eat. Plates and cups were disposable. The cook did eventually show and produced some food, but was too late for those full on the bagel and yoghurt diet. Overall a great stop over hotel, just don't have high hopes for the breakfast.More</t>
   </si>
   <si>
@@ -441,6 +621,42 @@
     <t xml:space="preserve">Stayed at the Sleep inn for the first time here in Houston and it was great! Not only was the price amazing but so were the comfortable beds, updated rooms, clean bathrooms, and friendly and very helpful staff. They also have a continental breakfast in the morning. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r350284193-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350284193</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Great place nice people</t>
+  </si>
+  <si>
+    <t>We have stayed at this Sleep Inn several times, and always find it a welcome place. Clean, comfortable rooms. Warm friendly people. Thanks, Roger, for making our stay a good one. The breakfast is the usual waffles, fruit and hot eggs.  We will stay here again.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r346698683-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346698683</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Service beyond what was expected</t>
+  </si>
+  <si>
+    <t>I have rated this hotel as excellent for the fantastic service provided by the managers. We needed a SIM card for the mobile and we were driven by the manager to a local store more than 2 miles away to get one. He also offered to open up the swimming pool for us even though officially it was out of season. Our room was spacious and spotlessly clean, as was the whole hotel. Breakfast was a self service affair with plastic plates and cutlery but there was a waffle making machine and good orange juice. It is quite a distance from downtown Houston but not too far from the airport, it is also very good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have rated this hotel as excellent for the fantastic service provided by the managers. We needed a SIM card for the mobile and we were driven by the manager to a local store more than 2 miles away to get one. He also offered to open up the swimming pool for us even though officially it was out of season. Our room was spacious and spotlessly clean, as was the whole hotel. Breakfast was a self service affair with plastic plates and cutlery but there was a waffle making machine and good orange juice. It is quite a distance from downtown Houston but not too far from the airport, it is also very good value.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r342925994-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -477,9 +693,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>At first when I arrived the hotel seemed nice, until I got to my first room, the smell was awfull, so I ask for another room and they gave me one exactly on the side of the lobby, but all the lobby sounds could be heard so they switch me to another room... To be honest all the rooms smelled bad, and everytime I went out for something and then came back the smell was remembered... Anyway, after this, at almost 2am I dont know what the hell machine started to work near my room and the sound was so loud that the microwave in my room even started to tilt!!!! So this made even more loudness and I couldnt sleep until this machine was shut off, which was about an hour later, I even opened my door to check what was happening and I think was the ice machine in the corridor. Besides of this 2 simple to fix issues everything else was good. So if you stay here DO NOT CHOOSE ROOMS CLOSE TO ICE MACHINES OR THE FIRST FLOOR NEAR THE LOBBY!!! Another thing, the difference in price with other hotels in the area like the Springhill &amp; Suites about a mile ago make it a bad choice, because for a few bucks more you get a PERFECT HOTEL AND A MUCH MUCH MUCH BETTER ROOM THAN HERE, so think about it!More</t>
   </si>
   <si>
@@ -501,6 +714,39 @@
     <t>I have reviewed this hotel several times, and I am reviewing again.  This is the best kept secret in North Houston.  If you need a great hotel - the staff here are so nice anytime of day; it is a great location; restaurants close by; easy access to i-45 but far enough off to be quiet.I did finally check, as I keep odd working hours, but they have a very nice pool area with a hot tub.  Nice place to just hang out.I still haven't made it to breakfast - but one thing they do have....fresh coffee &amp; hot tea 24/7.The beds are comfy, the rooms are clean, and they always smell fresh.If you are in the area, you won't be disappointed staying here.  This is our Houston go-to.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r324655787-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324655787</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for 3 nights. Everyone was very nice especially Roger at the front desk. He always put a smile on your face. Breakfast was good but average and rooms were clean. Has an outdoor pool area that was nice to sit at even if you didn't swim. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r309014744-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309014744</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>Very nice property, very well maintained.  Staff very friendly and helpful, thank you so much Roger.  Would highly recommend this location to family and friends who are looking for a good place to stay on North I-45 south of the Woodlands.  Lots of nice restaurants and shopping nearby.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r293127481-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -555,6 +801,36 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r286840486-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286840486</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>I 45 &amp; Airtex Houston TX</t>
+  </si>
+  <si>
+    <t>I stay here for business due to its location and good rate. Proximity to I45 and Beltway 8 make it a great choice for getting around. The staff is cheerful, breakfast has good variety, the business center printer always works and Roger is always very helpful w/ any request.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r285057877-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285057877</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Amazing Staff</t>
+  </si>
+  <si>
+    <t>Staff is friendly and helpful. Roger especially went out of his way to help and make sure that everything on the trip went smooth. Will stay here every time I'm in the area weather it's for business or personal. Great pricing and personal service to rival some of the best hotels I've stayed in. Thanks again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r280765909-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -609,6 +885,42 @@
     <t>I'm always amazed when I stay at this Hotel. First off let me say that I'm a Platnum Member with IHG and normally stay at the Holiday Inn Express. Infact there is one across the street and I used to stay there. Why don't I stay there anymore? It was because one day they were booked so I took the Sleep Inn &amp; Suites across the street. To my amazement the Sleep Inn &amp; Suites was phenomenal and exceptional. They made me feel as though I stayed with them all the time. Roger at the front desk always has a smile on his face and makes you feel as though he came to work specifically for you. This place is awesome and even though they are less money per night they are extremely comparable to the Holiday Inn Express. When I make my stay in Houston, I go to the Sleep Inn &amp; Suites.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r271354794-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271354794</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Keep going back - Nice place in north Houston</t>
+  </si>
+  <si>
+    <t>This is a great little place in North Houston.  Easy access, close to places to eat, and far enough off I45 to get away from noise.  This makes our 3rd or so time to stay and we will be back.  The staff is very accommodating and we appreciate this is our business travels.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r268893747-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268893747</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Clean Rooms and Nice Staff</t>
+  </si>
+  <si>
+    <t>I recently stayed for two nights in this location.  My first time at a Sleep Inn and I was pretty impressed.  There was a little confusion on the room booking from my company, but Roger at the front desk handled it all promptly and got my room right away.  It had been a long day traveling and I appreciated that.  All of the staff seemed friendly, but Roger stood out as very nice and professional.  The room was clean and quite nice with comfortable beds.  The continental breakfast was fairly sparse but adequate.  The pool area was nice, but the hot tub wasn't very warm.  A bit too much light came in the window shades, but it was pretty quiet.  All in all, I'd stay there again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed for two nights in this location.  My first time at a Sleep Inn and I was pretty impressed.  There was a little confusion on the room booking from my company, but Roger at the front desk handled it all promptly and got my room right away.  It had been a long day traveling and I appreciated that.  All of the staff seemed friendly, but Roger stood out as very nice and professional.  The room was clean and quite nice with comfortable beds.  The continental breakfast was fairly sparse but adequate.  The pool area was nice, but the hot tub wasn't very warm.  A bit too much light came in the window shades, but it was pretty quiet.  All in all, I'd stay there again when in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r267557401-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -624,9 +936,6 @@
     <t>This Sleep Inn is close to the Woodlands and within walking distance to Cracker Barrel and other restaurants.     Friendly staff.... especially Roger at the front desk!  Roger always greets you with a huge smile and maintains a genuine can do attitude.  Example...  breakfast items had been .put up for the morning and Roger went into the  Kitchen and brought out some breakfast items just for me. Was impressed with that "over and above" attitude..</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r267313676-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -657,6 +966,36 @@
     <t>I would highly recommend this hotel. It is conveniently located, very clean, and has a great staff. The room was very spacious and CLEAN! I can;t emphasize that enough. The staff was very friendly and went out of their way to offer their services. Special thanks to Roger....Great job kid....keep up the good work!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r256603656-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256603656</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Ok place, nothing to write home about...</t>
+  </si>
+  <si>
+    <t>This hotel was reasonable and near the Interstate in Houston. Not much nearby, just a place to sleep. The Continental breakfast was horrible. Powered eggs. Disgusting! Would I stay here again? Probably not...I'd spring an extra $30 bucks and stay downtown...</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r256543216-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256543216</t>
+  </si>
+  <si>
+    <t>Great stay 20 min north of Houston</t>
+  </si>
+  <si>
+    <t>Very clean, new hotel. Warm smiling reception. Beds comfortable, four pillows on each bed, fridge, microwave. Even the towels are folded fancy. Coming back next month! Will tell all my friends who need to stay in this area.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r254672989-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -672,9 +1011,6 @@
     <t>Excellent accommodations. Staff/Manager very friendly and understanding. They even remembered my name. Rooms are very clean and roomy. Great location with easy in easy out access. Very quiet!!! I will definitely stay here again. I can only remember two names and I don't want to leave the third one out, but you guys know who you are. Thank you guys so much for making my 50th birthday a memorable one!!!</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r250815618-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -723,6 +1059,42 @@
     <t>We made the huge mistake and booked this hotel for our 2 night stay in Houston back in October.The booking had a free cancelation protection, however, after we canceled our room (which was well within the free cancellation window) the hotel staff coded us as a "NO SHOW" and instead of getting the promised full refund, our credit card was charged for the full amount of $224.23!The manager of the property, Hethal Shaah, is either never in her office or simply refuses to accept our call. Numerous requests for a call back have been ignored by this manager.I have filed a formal complaint with the Customer Relations Department at Choice Inn Headquarters and am anxiously awaiting a resolution in addition to having filed a dispute with our credit card company!Save yourself a huge headache and unnecessary expenses and book a different property.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r241184887-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241184887</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>First time to visit this chain</t>
+  </si>
+  <si>
+    <t>We were extremely pleased with this visit. The room was extremely clean, spacious and comfortable. The cleanliness of the whole property was outstanding. When we arrived at night, the owner was there greeting guests and when we left the next morning, the owner was there again and always friendly and ready to help. Roger at the front desk was also extremely friendly and helpful.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r239565877-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239565877</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel and Wonderful Staff</t>
+  </si>
+  <si>
+    <t>I read in other reviews where it is said this is a bad neighborhood where the hotel is. I have stayed at several other hotels in Houston and I must admit there is crime in Houston. The neighborhood near the Hotel is very clean and the people in the area (neighborhood) have always been polite. I also slept in to 12:30 PM and when I left my room I found the housekeeper and asked her to take care of the towels and trash, when I returned she even re-sheeted the bed. That is one thing I must mention unless you request they not change the sheets everyday they will. Overall for the price, quality of staff and quality of room I must give 5 stars, I must mention the do not have a shuttle service to the airport, but they would probably lose a lot of money for that service. If this hotel is 10-15 minutes from where you might stay, I say to go here it is well worth it! I stayed for 2 weeks so I know the area and Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I read in other reviews where it is said this is a bad neighborhood where the hotel is. I have stayed at several other hotels in Houston and I must admit there is crime in Houston. The neighborhood near the Hotel is very clean and the people in the area (neighborhood) have always been polite. I also slept in to 12:30 PM and when I left my room I found the housekeeper and asked her to take care of the towels and trash, when I returned she even re-sheeted the bed. That is one thing I must mention unless you request they not change the sheets everyday they will. Overall for the price, quality of staff and quality of room I must give 5 stars, I must mention the do not have a shuttle service to the airport, but they would probably lose a lot of money for that service. If this hotel is 10-15 minutes from where you might stay, I say to go here it is well worth it! I stayed for 2 weeks so I know the area and Hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r234745619-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -771,6 +1143,42 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r191483061-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191483061</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>I stayed here for about a week and the room was awesome. It was spacious for all my belongings and I loved the tall mirror they had as you walked in. The only thing I didn't get to do was try breakfast because the area was small and in the mornings when I would come down I would see some of the other guests standing outside the door. Overall it was a great and I would recommend it.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r184488556-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184488556</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>Awesome Stay!</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days and as soon as I entered the hotel I knew I was going to have a great stay, the lobby smelled super clean and the front desk clerk was very polite. My room was one of the cleanest rooms I've ever stayed in. In the morning  I had breakfast and it was delicious, I loved the Texas waffle. I really like that the  whole staff was very nice, they always had a smile.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r184073152-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -786,9 +1194,6 @@
     <t>The moment you walk in you are greeted by a smile and a friendly front desk clerk. Terri was the lady that checked us in and she knew great places to refer us to in the area. Very courteous and helpful always asking if everything was ok in the rm and if we needed anything to not hesitate went above and beyond. The rooms were immaculant great job to the housekeeping staff. I would most definately be staying at this hotel again next time we are in town we will have to come see Terri and that wonderful smile thanks for all you did to make our stay great.</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r183409619-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -822,6 +1227,42 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r179652099-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179652099</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Beautiful and clean!</t>
+  </si>
+  <si>
+    <t>I went away with some friends for a girls' trip and we stayed at this lovely Sleep Inn.  From the moment we walked into the lobby, we knew it was going to be a great stay.  It's clean as a whistle and modern and it smelled great.  You know how some hotels have kind of a musty or chemical smell?  This one was fresh.  When we got to our room were so pleased by how clean and modern everything was.  We were just so impressed.  The breakfast was a standard free set up with fruit, cold cereal, yogurt, pastries, do it yourself wafflemaker, with added hot sausage, eggs, and biscuits.  You really can't go wrong with this hotel.  It's in a good quiet part of town and it is very clean and well-maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I went away with some friends for a girls' trip and we stayed at this lovely Sleep Inn.  From the moment we walked into the lobby, we knew it was going to be a great stay.  It's clean as a whistle and modern and it smelled great.  You know how some hotels have kind of a musty or chemical smell?  This one was fresh.  When we got to our room were so pleased by how clean and modern everything was.  We were just so impressed.  The breakfast was a standard free set up with fruit, cold cereal, yogurt, pastries, do it yourself wafflemaker, with added hot sausage, eggs, and biscuits.  You really can't go wrong with this hotel.  It's in a good quiet part of town and it is very clean and well-maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r167737198-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167737198</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>This hotel is a nice hotel right off the hiway. Very conveniently located in a quiet area. Room was very clean. Was great value for the money. This is my 2nd stay at this location, and I will use it again in the future.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r160071099-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -876,6 +1317,39 @@
     <t>This is one of the new Sleep Inns, and they've done a very good job with them. We needed something near IAH for an early flight, and this was about a 20-minute drive at 7 AM on a Tuesday. There are closer hotels, but you will pay a lot more for a decent one! We had a large, spotlessly clean room with a very high ceiling (11 feet, I think) and very comfortable king-size bed. It's 100% smoke-free, so there's no need to worry about getting a formerly smoky room. The free breakfast was adequate (bake-your-own waffles, pre-made egg and biscuit sandwiches), though nothing like that of the other Sleep Inn I reviewed back in October! Quite satisified with our stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r150971691-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150971691</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Good stay for UTI Graduation.</t>
+  </si>
+  <si>
+    <t>My family of 15 traveled to Houston and reserved several rooms.  We had many kids with our group and the hotel receptionist was very polite and patient with them.The rooms were very modern, clean, and comfortable. The breakfast was nice because it had a great assortment and everyone found something they liked.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r150150893-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150150893</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Awesome Room!</t>
+  </si>
+  <si>
+    <t>Had an overnight stay here and the room was perfect! Very clean, fresh, nice decor, plenty of space, super comfy bed, very nice bathroom. Wish I coulda stayed longer to take advantage of the mini fridge &amp; microwave :)</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r148478372-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1401,39 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r143156519-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143156519</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>Terrific Hotel!!</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and in good shape. Staff were extremely nice and helpful. Rooms were spacious , large flat screen tv, comfortable beds, and the A/C worked great. Bathroom was large and clean.  Microwave, fridge and iron were included in room. Breakfast was good. We did not use the swimming pool and hot tub, but it was clean and had a large sitting area. Hotel is 100% smoke free, you have to go outside to smoke. Good location and a great price, we will stay here again.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r142912074-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142912074</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Great place, especially for the price. Got 10% off for last minute booking!  Large room, comfy bed, clean and friendly staff with excellent customer service.  I'd definitely stay again.  Very convenient to the freeway, restaurants, and shopping.  Didn't eat breakfast, but looked ok if you are in a hurry or on a tight budget.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r142106106-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1489,39 @@
   </si>
   <si>
     <t>We are in Houston at least once a month.  This was our first time to stay at this hotel.  It was perfect.  Just north of the Beltway, which was good for us, easy access.  The hotel met all of our criteria, very clean, great service, the bed &amp; pillows very comfortable, and 24 hour fresh hot coffee.  They had free breakfast and it looked very good when I went for coffee, but I didn't eat on this trip.  It was also close to fast food &amp; other nicer restaurants.I was very impressed.  We normally stay at another hotel north of here, but this hotel was about $50 less per night and was probably better than the other place we normally stay..  This is now our "north" end hotel for trips to the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r121055341-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121055341</t>
+  </si>
+  <si>
+    <t>11/26/2011</t>
+  </si>
+  <si>
+    <t>Another good Sleep Inn</t>
+  </si>
+  <si>
+    <t>This property has very friendly, helpful staff and huge rooms. Because it faces I-45, access has to be from the service road and getting to the nearest mall across the interstate and a few exits along takes care and patience.Check-in was as painless as check-out, the room was well equipped with coffee machine, microwave and refrigerator and that's more than you'll find in most rooms costing ten times as much.Breakfast was basic but there was plenty of it. I'd stay here again, definitely.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1846923-r114063737-Sleep_Inn_Suites_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114063737</t>
+  </si>
+  <si>
+    <t>06/17/2011</t>
+  </si>
+  <si>
+    <t>This hotel looked to be brand new (at I-45 and Airtex).  The lobby and room decor was great...very modern.  The room was very very clean. There was a flat screen tv, microwave and fridge in each room.  I loved that our window overlooked he pool which is large and secluded. We needed to check in early after a long drive and the staff was great.  There is a small business center and exercise room.  The breakfast was not one of the better ones, but this was a great bargain.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +2056,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1525,17 +2065,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1579,31 +2113,37 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1619,7 +2159,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1628,34 +2168,34 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1666,7 +2206,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +2222,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1691,39 +2231,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>73</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1739,7 +2283,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1748,39 +2292,45 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
       <c r="O6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1796,7 +2346,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1805,26 +2355,22 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s">
-        <v>81</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1837,7 +2383,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1853,7 +2399,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1862,45 +2408,35 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1916,7 +2452,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1925,43 +2461,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1977,7 +2509,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1986,43 +2518,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2038,7 +2566,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2047,45 +2575,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>106</v>
       </c>
-      <c r="K11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>109</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -2101,7 +2623,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2110,39 +2632,45 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2686,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2167,34 +2695,34 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -2205,7 +2733,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -2221,7 +2749,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2230,34 +2758,34 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2268,7 +2796,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -2284,7 +2812,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2293,31 +2821,29 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>129</v>
-      </c>
-      <c r="J15" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L15" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>126</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
@@ -2331,7 +2857,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -2347,7 +2873,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2356,39 +2882,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -2404,7 +2934,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2413,35 +2943,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2449,7 +2981,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2465,7 +2997,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2474,37 +3006,37 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
       </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2512,7 +3044,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -2552,16 +3084,18 @@
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -2573,7 +3107,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -2589,54 +3123,48 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
         <v>159</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>160</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>161</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>162</v>
       </c>
-      <c r="L20" t="s">
-        <v>163</v>
-      </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
@@ -2652,43 +3180,43 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
         <v>166</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>167</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>168</v>
       </c>
-      <c r="K21" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>164</v>
-      </c>
       <c r="O21" t="s">
-        <v>151</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2699,7 +3227,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
@@ -2715,48 +3243,54 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
         <v>171</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>172</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>173</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>174</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" t="s">
         <v>175</v>
       </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>176</v>
-      </c>
-      <c r="O22" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
@@ -2793,31 +3327,27 @@
         <v>181</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
@@ -2833,40 +3363,42 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>183</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>184</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>185</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>186</v>
       </c>
-      <c r="L24" t="s">
-        <v>187</v>
-      </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -2918,24 +3450,30 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
@@ -2951,54 +3489,48 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>195</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>196</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>197</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>198</v>
       </c>
-      <c r="L26" t="s">
-        <v>199</v>
-      </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
@@ -3014,48 +3546,54 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
         <v>201</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>202</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>203</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>204</v>
       </c>
-      <c r="L27" t="s">
-        <v>205</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>200</v>
-      </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
@@ -3071,39 +3609,41 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
         <v>206</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>207</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>208</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>209</v>
       </c>
-      <c r="L28" t="s">
-        <v>210</v>
-      </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
@@ -3159,16 +3699,14 @@
         <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3216,20 +3754,20 @@
         <v>221</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
         <v>222</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
@@ -3239,14 +3777,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
         <v>223</v>
-      </c>
-      <c r="X30" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="31">
@@ -3262,42 +3796,44 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
         <v>226</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>227</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>228</v>
       </c>
-      <c r="K31" t="s">
-        <v>229</v>
-      </c>
-      <c r="L31" t="s">
-        <v>230</v>
-      </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3305,7 +3841,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
@@ -3321,54 +3857,48 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s">
         <v>233</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>234</v>
       </c>
-      <c r="J32" t="s">
-        <v>235</v>
-      </c>
-      <c r="K32" t="s">
-        <v>236</v>
-      </c>
-      <c r="L32" t="s">
-        <v>237</v>
-      </c>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
         <v>4</v>
       </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="N32" t="s">
+        <v>222</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
@@ -3384,46 +3914,44 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" t="s">
         <v>238</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>239</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>240</v>
       </c>
-      <c r="K33" t="s">
-        <v>241</v>
-      </c>
-      <c r="L33" t="s">
-        <v>242</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
       <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3431,7 +3959,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34">
@@ -3447,41 +3975,47 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
         <v>243</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>244</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>245</v>
-      </c>
-      <c r="K34" t="s">
-        <v>246</v>
-      </c>
-      <c r="L34" t="s">
-        <v>247</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s">
-        <v>81</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
@@ -3504,46 +4038,42 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
         <v>249</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>250</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>251</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>252</v>
       </c>
-      <c r="L35" t="s">
-        <v>253</v>
-      </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="O35" t="s">
-        <v>151</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3555,7 +4085,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36">
@@ -3571,58 +4101,48 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" t="s">
         <v>255</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>256</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>257</v>
-      </c>
-      <c r="K36" t="s">
-        <v>258</v>
-      </c>
-      <c r="L36" t="s">
-        <v>259</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
@@ -3638,50 +4158,46 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>260</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>261</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>262</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>263</v>
       </c>
-      <c r="L37" t="s">
-        <v>264</v>
-      </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
         <v>4</v>
       </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3689,7 +4205,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
@@ -3705,58 +4221,48 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
         <v>266</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>267</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>268</v>
       </c>
-      <c r="K38" t="s">
-        <v>269</v>
-      </c>
-      <c r="L38" t="s">
-        <v>270</v>
-      </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="O38" t="s">
-        <v>151</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39">
@@ -3772,48 +4278,52 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" t="s">
         <v>272</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>273</v>
       </c>
-      <c r="J39" t="s">
-        <v>274</v>
-      </c>
-      <c r="K39" t="s">
-        <v>275</v>
-      </c>
-      <c r="L39" t="s">
-        <v>276</v>
-      </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="O39" t="s">
-        <v>151</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40">
@@ -3829,50 +4339,44 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>276</v>
+      </c>
+      <c r="J40" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" t="s">
         <v>278</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>279</v>
       </c>
-      <c r="J40" t="s">
-        <v>280</v>
-      </c>
-      <c r="K40" t="s">
-        <v>281</v>
-      </c>
-      <c r="L40" t="s">
-        <v>282</v>
-      </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3880,7 +4384,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
@@ -3896,58 +4400,48 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" t="s">
         <v>284</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>285</v>
       </c>
-      <c r="J41" t="s">
-        <v>286</v>
-      </c>
-      <c r="K41" t="s">
-        <v>287</v>
-      </c>
-      <c r="L41" t="s">
-        <v>288</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>289</v>
-      </c>
       <c r="O41" t="s">
-        <v>81</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42">
@@ -3963,50 +4457,44 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>288</v>
+      </c>
+      <c r="J42" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" t="s">
         <v>290</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="L42" t="s">
         <v>291</v>
       </c>
-      <c r="J42" t="s">
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
         <v>292</v>
       </c>
-      <c r="K42" t="s">
-        <v>293</v>
-      </c>
-      <c r="L42" t="s">
-        <v>294</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>289</v>
-      </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
         <v>4</v>
       </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4014,7 +4502,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
@@ -4030,47 +4518,41 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43" t="s">
         <v>295</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>296</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>297</v>
       </c>
-      <c r="K43" t="s">
-        <v>298</v>
-      </c>
-      <c r="L43" t="s">
-        <v>299</v>
-      </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4081,7 +4563,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44">
@@ -4097,50 +4579,46 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>299</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>300</v>
+      </c>
+      <c r="J44" t="s">
         <v>301</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>302</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>303</v>
-      </c>
-      <c r="K44" t="s">
-        <v>304</v>
-      </c>
-      <c r="L44" t="s">
-        <v>305</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="O44" t="s">
-        <v>81</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4148,7 +4626,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45">
@@ -4164,54 +4642,48 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J45" t="s">
+        <v>306</v>
+      </c>
+      <c r="K45" t="s">
         <v>307</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>308</v>
       </c>
-      <c r="J45" t="s">
-        <v>309</v>
-      </c>
-      <c r="K45" t="s">
-        <v>310</v>
-      </c>
-      <c r="L45" t="s">
-        <v>311</v>
-      </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="N45" t="s">
+        <v>292</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46">
@@ -4227,31 +4699,31 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" t="s">
+        <v>311</v>
+      </c>
+      <c r="K46" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" t="s">
         <v>313</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
-        <v>314</v>
-      </c>
-      <c r="J46" t="s">
-        <v>315</v>
-      </c>
-      <c r="K46" t="s">
-        <v>316</v>
-      </c>
-      <c r="L46" t="s">
-        <v>317</v>
-      </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="O46" t="s">
         <v>53</v>
@@ -4259,15 +4731,9 @@
       <c r="P46" t="n">
         <v>5</v>
       </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4278,7 +4744,2077 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" t="s">
+        <v>317</v>
+      </c>
+      <c r="L47" t="s">
+        <v>318</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
         <v>319</v>
+      </c>
+      <c r="O47" t="s">
+        <v>82</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>320</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" t="s">
+        <v>316</v>
+      </c>
+      <c r="K48" t="s">
+        <v>322</v>
+      </c>
+      <c r="L48" t="s">
+        <v>323</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>324</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>325</v>
+      </c>
+      <c r="J49" t="s">
+        <v>326</v>
+      </c>
+      <c r="K49" t="s">
+        <v>327</v>
+      </c>
+      <c r="L49" t="s">
+        <v>328</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>319</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>329</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>330</v>
+      </c>
+      <c r="J50" t="s">
+        <v>331</v>
+      </c>
+      <c r="K50" t="s">
+        <v>332</v>
+      </c>
+      <c r="L50" t="s">
+        <v>333</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>334</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>335</v>
+      </c>
+      <c r="X50" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>338</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>339</v>
+      </c>
+      <c r="J51" t="s">
+        <v>340</v>
+      </c>
+      <c r="K51" t="s">
+        <v>341</v>
+      </c>
+      <c r="L51" t="s">
+        <v>342</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>343</v>
+      </c>
+      <c r="O51" t="s">
+        <v>82</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" t="s">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s">
+        <v>349</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>350</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>351</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>352</v>
+      </c>
+      <c r="J53" t="s">
+        <v>353</v>
+      </c>
+      <c r="K53" t="s">
+        <v>354</v>
+      </c>
+      <c r="L53" t="s">
+        <v>355</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>350</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>357</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>358</v>
+      </c>
+      <c r="J54" t="s">
+        <v>359</v>
+      </c>
+      <c r="K54" t="s">
+        <v>360</v>
+      </c>
+      <c r="L54" t="s">
+        <v>361</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>363</v>
+      </c>
+      <c r="J55" t="s">
+        <v>364</v>
+      </c>
+      <c r="K55" t="s">
+        <v>365</v>
+      </c>
+      <c r="L55" t="s">
+        <v>366</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>368</v>
+      </c>
+      <c r="J56" t="s">
+        <v>369</v>
+      </c>
+      <c r="K56" t="s">
+        <v>370</v>
+      </c>
+      <c r="L56" t="s">
+        <v>371</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>372</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>373</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>374</v>
+      </c>
+      <c r="J57" t="s">
+        <v>375</v>
+      </c>
+      <c r="K57" t="s">
+        <v>376</v>
+      </c>
+      <c r="L57" t="s">
+        <v>377</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>378</v>
+      </c>
+      <c r="O57" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>379</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>380</v>
+      </c>
+      <c r="J58" t="s">
+        <v>381</v>
+      </c>
+      <c r="K58" t="s">
+        <v>382</v>
+      </c>
+      <c r="L58" t="s">
+        <v>383</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>384</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>385</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>386</v>
+      </c>
+      <c r="J59" t="s">
+        <v>387</v>
+      </c>
+      <c r="K59" t="s">
+        <v>388</v>
+      </c>
+      <c r="L59" t="s">
+        <v>389</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>384</v>
+      </c>
+      <c r="O59" t="s">
+        <v>175</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J60" t="s">
+        <v>392</v>
+      </c>
+      <c r="K60" t="s">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s">
+        <v>394</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>384</v>
+      </c>
+      <c r="O60" t="s">
+        <v>175</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>396</v>
+      </c>
+      <c r="J61" t="s">
+        <v>397</v>
+      </c>
+      <c r="K61" t="s">
+        <v>398</v>
+      </c>
+      <c r="L61" t="s">
+        <v>399</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>400</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>401</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>402</v>
+      </c>
+      <c r="J62" t="s">
+        <v>403</v>
+      </c>
+      <c r="K62" t="s">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s">
+        <v>405</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>406</v>
+      </c>
+      <c r="O62" t="s">
+        <v>82</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>408</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>409</v>
+      </c>
+      <c r="J63" t="s">
+        <v>410</v>
+      </c>
+      <c r="K63" t="s">
+        <v>411</v>
+      </c>
+      <c r="L63" t="s">
+        <v>412</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>413</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>414</v>
+      </c>
+      <c r="J64" t="s">
+        <v>415</v>
+      </c>
+      <c r="K64" t="s">
+        <v>416</v>
+      </c>
+      <c r="L64" t="s">
+        <v>417</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>418</v>
+      </c>
+      <c r="O64" t="s">
+        <v>175</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>419</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>420</v>
+      </c>
+      <c r="J65" t="s">
+        <v>421</v>
+      </c>
+      <c r="K65" t="s">
+        <v>422</v>
+      </c>
+      <c r="L65" t="s">
+        <v>423</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>424</v>
+      </c>
+      <c r="O65" t="s">
+        <v>175</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>425</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>426</v>
+      </c>
+      <c r="J66" t="s">
+        <v>427</v>
+      </c>
+      <c r="K66" t="s">
+        <v>428</v>
+      </c>
+      <c r="L66" t="s">
+        <v>429</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>424</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>432</v>
+      </c>
+      <c r="J67" t="s">
+        <v>433</v>
+      </c>
+      <c r="K67" t="s">
+        <v>434</v>
+      </c>
+      <c r="L67" t="s">
+        <v>435</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>436</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>437</v>
+      </c>
+      <c r="J68" t="s">
+        <v>438</v>
+      </c>
+      <c r="K68" t="s">
+        <v>439</v>
+      </c>
+      <c r="L68" t="s">
+        <v>440</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>441</v>
+      </c>
+      <c r="O68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>442</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>443</v>
+      </c>
+      <c r="J69" t="s">
+        <v>444</v>
+      </c>
+      <c r="K69" t="s">
+        <v>445</v>
+      </c>
+      <c r="L69" t="s">
+        <v>446</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>447</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>448</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>449</v>
+      </c>
+      <c r="J70" t="s">
+        <v>450</v>
+      </c>
+      <c r="K70" t="s">
+        <v>451</v>
+      </c>
+      <c r="L70" t="s">
+        <v>452</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>447</v>
+      </c>
+      <c r="O70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>453</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>454</v>
+      </c>
+      <c r="J71" t="s">
+        <v>455</v>
+      </c>
+      <c r="K71" t="s">
+        <v>456</v>
+      </c>
+      <c r="L71" t="s">
+        <v>457</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>458</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>459</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>460</v>
+      </c>
+      <c r="J72" t="s">
+        <v>461</v>
+      </c>
+      <c r="K72" t="s">
+        <v>462</v>
+      </c>
+      <c r="L72" t="s">
+        <v>463</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>464</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>465</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>466</v>
+      </c>
+      <c r="J73" t="s">
+        <v>467</v>
+      </c>
+      <c r="K73" t="s">
+        <v>468</v>
+      </c>
+      <c r="L73" t="s">
+        <v>469</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>464</v>
+      </c>
+      <c r="O73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>470</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>471</v>
+      </c>
+      <c r="J74" t="s">
+        <v>472</v>
+      </c>
+      <c r="K74" t="s">
+        <v>473</v>
+      </c>
+      <c r="L74" t="s">
+        <v>474</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>475</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>476</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>477</v>
+      </c>
+      <c r="J75" t="s">
+        <v>478</v>
+      </c>
+      <c r="K75" t="s">
+        <v>479</v>
+      </c>
+      <c r="L75" t="s">
+        <v>480</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>482</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>483</v>
+      </c>
+      <c r="J76" t="s">
+        <v>484</v>
+      </c>
+      <c r="K76" t="s">
+        <v>485</v>
+      </c>
+      <c r="L76" t="s">
+        <v>486</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>487</v>
+      </c>
+      <c r="O76" t="s">
+        <v>70</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>489</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>490</v>
+      </c>
+      <c r="J77" t="s">
+        <v>491</v>
+      </c>
+      <c r="K77" t="s">
+        <v>492</v>
+      </c>
+      <c r="L77" t="s">
+        <v>493</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>494</v>
+      </c>
+      <c r="O77" t="s">
+        <v>82</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60879</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>495</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>496</v>
+      </c>
+      <c r="J78" t="s">
+        <v>497</v>
+      </c>
+      <c r="K78" t="s">
+        <v>376</v>
+      </c>
+      <c r="L78" t="s">
+        <v>498</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>499</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
